--- a/DesignDocs/API_Design_Hotel_Usecase.xlsx
+++ b/DesignDocs/API_Design_Hotel_Usecase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\SRG_others\Project\Review and Reputation System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BF3124-E231-41FC-B9F0-F388269E03DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454120E0-FC7E-45AE-B4CB-0675621901B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0F2997E8-A61A-4443-88F7-9D5D4928EE80}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t xml:space="preserve">1. Create Review Categories </t>
   </si>
@@ -221,55 +221,6 @@
       "product": "rnr",
       "request_type": "FETCH_REVIEW_RATING"
     }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "review_rating_fetch_rs": {
-    "overall_rating": "5",
-    "overall_review": "Excellent to stay",
-    "reputation_score": "4.8",
-    "review_rating_details_overall": [
-      {
-        "review": "The room was cozy and well-appointed, providing a relaxing and comfortable stay.",
-        "rating": "4"
-      },
-      {
-        "review": "The amenities were excellent, offering everything needed for a convenient and enjoyable stay.",
-        "rating": "4"
-      }
-    ],
-    "category_wise_review_rating": [
-      {
-        "category_name": "Location",
-        "category_desc": "4",
-        "review_rating_details_by_category": [
-          {
-            "review": "The location was perfect, offering easy access to key attractions and local conveniences.",
-            "rating": "4"
-          },
-          {
-            "review": "The location was ideal, situated close to major landmarks and public transport, making it highly convenient for exploring the area.",
-            "rating": "4"
-          }
-        ]
-      },
-      {
-        "category_name": "Cleanliness",
-        "category_desc": "4",
-        "review_rating_details_by_category": [
-          {
-            "review": "The cleanliness was top-notch, with the room and facilities meticulously maintained throughout the stay.",
-            "rating": "4"
-          },
-          {
-            "review": "The room was flawlessly clean, providing a fresh and inviting environment throughout my stay.",
-            "rating": "4"
-          }
-        ]
-      }
-    ]
   }
 }</t>
   </si>
@@ -333,31 +284,6 @@
     <t>Guest and booking details to RnR using scheduler</t>
   </si>
   <si>
-    <t>{
-  "guest_booking_info": {
-    "header": {
-      "user_name": "hbs_int",
-      "product": "rnr",
-      "request_type": "SEND_BOOKING_INFO"
-    },   
-    "guest_list": [
-      {
-        "guest_email": "john.doe@example.com",
-         "guest_id": "123",
-        "booking_id": "12345",
-        "review_request_date": "2024-11-22T12:00:00"
-      },
-      {
-        "guest_email": "peter.en@example.com",
-         "guest_id": "124",
-        "booking_id": "23546",
-        "review_request_date": "2024-12-24T12:00:00"
-      }
-    ]
-  }
-}</t>
-  </si>
-  <si>
     <t>A scheduler will be there inside RnR system which will pull the guest and booking info post checkout and trigger mail to respective guests requesting for review.</t>
   </si>
   <si>
@@ -415,6 +341,197 @@
   <si>
     <t>For businessUser all active/inactive categories will be fetched and modified_by, last_modified will be fetched; 
 For endUser only active categories will be fetched with id, name and description.</t>
+  </si>
+  <si>
+    <t>{
+  "guest_booking_info_rs": {
+      "guest_list": [
+      {
+        "guest_email": "john.doe@example.com",
+         "guest_id": "123",
+        "booking_id": "12345",
+        "review_request_date": "2024-11-22T12:00:00"
+      },
+      {
+        "guest_email": "peter.en@example.com",
+         "guest_id": "124",
+        "booking_id": "23546",
+        "review_request_date": "2024-12-24T12:00:00"
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>Populate guest booking info from HBS to RnR</t>
+  </si>
+  <si>
+    <t>{
+  "guest_booking_info_rq": {
+    "header": {
+      "user_name": "hbs_int",
+      "product": "rnr",
+      "request_type": "GET_BOOKING_INFO"
+    },   
+    "guest_list": [
+      {
+        "guest_id": "123",
+        "booking_id": "12345",
+        "first_name":"John",
+        "last_name":"Miller",
+        "email":"jm@example.com",
+        "phone_number":"915345355",
+        "room_id":"123",
+        "room_type":"Deluxe Room",
+        "check_in_date":"2024-10-12",
+        "check_out_date":"2024-10-14",
+        "booking_status":"Confirmed",
+        "total_amount":"2456",
+        "payment_status":"paid"
+      },
+      {
+        "guest_id": "124",
+        "booking_id": "23546",
+        "first_name":"Julia",
+        "last_name":"James",
+        "email":"jjames@example.com",
+        "phone_number":"122324242",
+        "room_id":"234",
+        "room_type":"Suite",
+        "check_in_date":"2024-08-11",
+        "check_out_date":"2024-08-14",
+        "booking_status":"Confirmed",
+        "total_amount":"3455",
+        "payment_status":"paid"
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "guest_booking_info_rs": {
+    "status": "success"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Once a guest completes a booking and the reservation is confirmed in the HBS, their booking information (name, email, stay dates) is sent to the RnR</t>
+  </si>
+  <si>
+    <t>{
+  "review_rating_fetch_rs": {
+    "overall_rating": "5",
+    "overall_review": "Excellent to stay",
+    "reputation_score": "4.8",
+    "review_rating_details_overall": [
+      {
+        "review": "The room was cozy and well-appointed, providing a relaxing and comfortable stay.",
+        "rating": "4",
+        "stay_on": "August, 2024",
+        "room_type": "Deluxe room",
+        "reply_msg" : "Thank you"
+      },
+      {
+        "review": "The amenities were excellent, offering everything needed for a convenient and enjoyable stay.",
+        "rating": "4",
+        "stay_on": "October, 2024",
+        "room_type": "Suite"
+      }
+    ],
+    "category_wise_review_rating": [
+      {
+        "category_name": "Location",
+        "category_desc": "4",
+        "review_rating_details_by_category": [
+          {
+            "review": "The location was perfect, offering easy access to key attractions and local conveniences.",
+            "rating": "4"
+          },
+          {
+            "review": "The location was ideal, situated close to major landmarks and public transport, making it highly convenient for exploring the area.",
+            "rating": "4"
+          }
+        ]
+      },
+      {
+        "category_name": "Cleanliness",
+        "category_desc": "4",
+        "review_rating_details_by_category": [
+          {
+            "review": "The cleanliness was top-notch, with the room and facilities meticulously maintained throughout the stay.",
+            "rating": "4"
+          },
+          {
+            "review": "The room was flawlessly clean, providing a fresh and inviting environment throughout my stay.",
+            "rating": "4"
+          }
+        ]
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>Reply to a review</t>
+  </si>
+  <si>
+    <t>Business User</t>
+  </si>
+  <si>
+    <t>ReplyToReviews</t>
+  </si>
+  <si>
+    <t>{
+  "review_reply_rq": {
+    "header": {
+      "user_name": "end/businessUser",
+      "product": "rnr",
+      "request_type": "REPLY_TO_REVIEW"
+    }
+    "review_id" : "123",
+    "reply_msg" : "Good"
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "review_reply_rq": {
+     "status": "success"
+  }
+}</t>
+  </si>
+  <si>
+    <t>View Review Reply thread</t>
+  </si>
+  <si>
+    <t>{
+  "review_reply_thread_rq": {
+    "header": {
+      "user_name": "end/businessUser",
+      "product": "rnr",
+      "request_type": "FETCH_REVIEW_REPLY_THREAD"
+    }
+    "review_id" : "123"
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "review_reply_rs": {
+    "review_id": "1"
+    "review_reply__info": [
+      {
+        "reply": "Excellent to stay",
+        "replied_by": "enduser1"
+      },
+      {
+        "reply": "Thank you",
+        "replied_by": "businessUser1"
+      }
+    ]
+  }
+}</t>
   </si>
 </sst>
 </file>
@@ -480,19 +597,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -839,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E787C5C5-2E9B-47F4-A916-697E8A6E6982}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -905,142 +1016,195 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="348" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="319" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="319" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="377" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="377" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="2" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
